--- a/trunk/documentos/tesis/tabla de linealidad frecuencia voltaje.xlsx
+++ b/trunk/documentos/tesis/tabla de linealidad frecuencia voltaje.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -283,25 +291,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189453056"/>
-        <c:axId val="189454592"/>
+        <c:axId val="193516288"/>
+        <c:axId val="193517824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189453056"/>
+        <c:axId val="193516288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189454592"/>
+        <c:crossAx val="193517824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189454592"/>
+        <c:axId val="193517824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,7 +317,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189453056"/>
+        <c:crossAx val="193516288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -322,7 +330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -648,20 +656,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="C2:C32 A2:A32"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -673,7 +681,7 @@
         <v>1.1340000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1100</v>
       </c>
@@ -685,7 +693,7 @@
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1200</v>
       </c>
@@ -697,7 +705,7 @@
         <v>1.1440000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1300</v>
       </c>
@@ -709,7 +717,7 @@
         <v>1.1520000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1400</v>
       </c>
@@ -720,8 +728,11 @@
         <f t="shared" si="0"/>
         <v>1.1580000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1500</v>
       </c>
@@ -733,7 +744,7 @@
         <v>1.1660000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1600</v>
       </c>
@@ -745,7 +756,7 @@
         <v>1.1740000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1700</v>
       </c>
@@ -757,7 +768,7 @@
         <v>1.1840000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1800</v>
       </c>
@@ -769,7 +780,7 @@
         <v>1.1960000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1900</v>
       </c>
@@ -781,7 +792,7 @@
         <v>1.2040000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -793,7 +804,7 @@
         <v>1.2160000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2100</v>
       </c>
@@ -805,7 +816,7 @@
         <v>1.226</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2200</v>
       </c>
@@ -817,7 +828,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2300</v>
       </c>
@@ -829,7 +840,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2400</v>
       </c>
